--- a/kobo_forms/form_meta.xlsx
+++ b/kobo_forms/form_meta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/kobo_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="515" documentId="8_{406D2D5B-1F45-47A9-9F71-88127433E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845ADAE2-DAF6-4DF8-A0AA-531D413692B0}"/>
@@ -1474,10 +1474,10 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/kobo_forms/form_meta.xlsx
+++ b/kobo_forms/form_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/kobo_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="8_{406D2D5B-1F45-47A9-9F71-88127433E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845ADAE2-DAF6-4DF8-A0AA-531D413692B0}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="8_{406D2D5B-1F45-47A9-9F71-88127433E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0DA7A9-2158-4745-BD91-2269615DF584}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{F868EB87-613D-4D57-84C6-7576153D1BEA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="343">
   <si>
     <t>type</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>position(..)</t>
-  </si>
-  <si>
-    <t>id_test</t>
   </si>
   <si>
     <t>once(concat('uuid:', uuid()))</t>
@@ -1471,13 +1468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7AE5F8-6897-4EA6-B848-F71675BD52F0}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1926,7 +1923,7 @@
         <v>331</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>333</v>
@@ -1937,10 +1934,10 @@
         <v>331</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1">
@@ -2043,7 +2040,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="11" customFormat="1">
@@ -2051,7 +2048,7 @@
         <v>331</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>333</v>
@@ -2062,10 +2059,10 @@
         <v>331</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="11" customFormat="1">
@@ -2209,10 +2206,10 @@
         <v>70</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" s="4"/>
       <c r="G45" s="11" t="s">
@@ -2227,32 +2224,39 @@
         <v>331</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="11" customFormat="1">
-      <c r="A47" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>335</v>
+      <c r="A47" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="F47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="11" customFormat="1">
       <c r="A48" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="11" t="s">
@@ -2262,40 +2266,45 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
-      <c r="A49" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="F49" s="11" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" s="11" customFormat="1">
+      <c r="A50" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>275</v>
+        <v>325</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>58</v>
@@ -2312,13 +2321,13 @@
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>58</v>
@@ -2335,13 +2344,13 @@
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1">
       <c r="A53" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>58</v>
@@ -2349,49 +2358,47 @@
       <c r="E53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G53" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1">
       <c r="A54" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>60</v>
+        <v>277</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="F54" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G54" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="11" customFormat="1">
+      <c r="A55" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="G55" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="11" customFormat="1">
-      <c r="A55" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="F55" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>326</v>
+      <c r="H55" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1">
@@ -2399,10 +2406,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D56" s="4"/>
       <c r="G56" s="11" t="s">
@@ -2416,209 +2423,191 @@
       </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1">
-      <c r="A57" s="11" t="s">
-        <v>43</v>
+      <c r="A57" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D57" s="4"/>
+      <c r="F57" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="F58" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G58" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1">
       <c r="A59" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>302</v>
+        <v>22</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D59" s="4"/>
       <c r="G59" s="11" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G60" s="11" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1">
       <c r="A61" s="4" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="G61" s="11" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="D62" s="4"/>
       <c r="G62" s="11" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="11" customFormat="1">
       <c r="A63" s="4" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D63" s="4"/>
       <c r="G63" s="11" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1">
       <c r="A64" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D64" s="4"/>
       <c r="G64" s="11" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D65" s="4"/>
       <c r="G65" s="11" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D66" s="4"/>
       <c r="G66" s="11" t="s">
         <v>320</v>
       </c>
+      <c r="H66" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="67" spans="1:9" s="11" customFormat="1">
       <c r="A67" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D67" s="4"/>
       <c r="G67" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="11" customFormat="1">
-      <c r="A68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="G68" s="11" t="s">
         <v>162</v>
       </c>
     </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="4"/>
+    </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:9">
@@ -2629,9 +2618,6 @@
     </row>
     <row r="72" spans="1:9">
       <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="C73" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kobo_forms/form_meta.xlsx
+++ b/kobo_forms/form_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/kobo_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="8_{406D2D5B-1F45-47A9-9F71-88127433E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0DA7A9-2158-4745-BD91-2269615DF584}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{406D2D5B-1F45-47A9-9F71-88127433E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05EFB55F-EDB0-4CED-8096-84AD5D117C74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{F868EB87-613D-4D57-84C6-7576153D1BEA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="353">
   <si>
     <t>type</t>
   </si>
@@ -323,9 +323,6 @@
     <t>### Section 2 :  Faune</t>
   </si>
   <si>
-    <t>### Section 3 :  Magafaune (apart RB)</t>
-  </si>
-  <si>
     <t>0-5m</t>
   </si>
   <si>
@@ -431,24 +428,12 @@
     <t>trichodesmium_pct</t>
   </si>
   <si>
-    <t>section_4_whalesharks</t>
-  </si>
-  <si>
-    <t>### Section 4 : Whale sharks</t>
-  </si>
-  <si>
     <t>(. &gt;=0 and .&lt;=6)</t>
   </si>
   <si>
-    <t>(. &gt;=0 and .&lt;=7)</t>
-  </si>
-  <si>
     <t>Must be between 0 and 6</t>
   </si>
   <si>
-    <t>Must be between 0 and 7</t>
-  </si>
-  <si>
     <t>0-5 meters</t>
   </si>
   <si>
@@ -461,12 +446,6 @@
     <t>15+ meters</t>
   </si>
   <si>
-    <t>mf_additions</t>
-  </si>
-  <si>
-    <t>Add as many necessary</t>
-  </si>
-  <si>
     <t>${operator} = 'lbr'</t>
   </si>
   <si>
@@ -797,12 +776,6 @@
     <t>100+</t>
   </si>
   <si>
-    <t>ws_note</t>
-  </si>
-  <si>
-    <t>Please add a section for every shark you see, even if no ID was taken.</t>
-  </si>
-  <si>
     <t>select_one tag</t>
   </si>
   <si>
@@ -1073,10 +1046,67 @@
     <t>megaf_id</t>
   </si>
   <si>
-    <t>new scar?</t>
-  </si>
-  <si>
-    <t>new shark?</t>
+    <t>megafauna</t>
+  </si>
+  <si>
+    <t>scar</t>
+  </si>
+  <si>
+    <t>whale shark</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Between 0-100</t>
+  </si>
+  <si>
+    <t>(. &gt;=0 and .&lt;=100)</t>
+  </si>
+  <si>
+    <t>Must be between 0 - 100</t>
+  </si>
+  <si>
+    <t>Enter value between 0 and 6</t>
+  </si>
+  <si>
+    <t>Enter value between 30 and 40</t>
+  </si>
+  <si>
+    <t>megaf_or_shark</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>### Section 3: Add Sightings</t>
+  </si>
+  <si>
+    <t>If no megafauna sightings, leave blank and submit form</t>
+  </si>
+  <si>
+    <t>${megaf_or_shark}='megaf'</t>
+  </si>
+  <si>
+    <t>${megaf_or_shark}='shark'</t>
+  </si>
+  <si>
+    <t>select_one megaf_or_shark</t>
+  </si>
+  <si>
+    <t>sighting_repeat</t>
+  </si>
+  <si>
+    <t>sighting</t>
+  </si>
+  <si>
+    <t>What have you seen?</t>
+  </si>
+  <si>
+    <t>Whale shark</t>
+  </si>
+  <si>
+    <t>Other megafauna</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1154,6 +1184,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,28 +1504,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7AE5F8-6897-4EA6-B848-F71675BD52F0}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="22" style="11" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="27" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1546,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>44</v>
@@ -1518,13 +1555,16 @@
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>323</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1539,8 +1579,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
@@ -1552,8 +1593,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1565,8 +1607,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -1578,8 +1621,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -1593,8 +1637,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
@@ -1611,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1639,16 +1684,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -1685,13 +1730,16 @@
         <v>60</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>127</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1707,8 +1755,11 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
@@ -1725,13 +1776,16 @@
         <v>60</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>127</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1">
+    <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1764,8 +1818,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
@@ -1773,7 +1828,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>78</v>
@@ -1782,7 +1837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1">
+    <row r="17" spans="1:11" s="5" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
@@ -1799,13 +1854,14 @@
         <v>2</v>
       </c>
       <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>73</v>
@@ -1817,13 +1873,14 @@
         <v>80</v>
       </c>
       <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>74</v>
@@ -1835,13 +1892,14 @@
         <v>80</v>
       </c>
       <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1">
       <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>75</v>
@@ -1853,13 +1911,14 @@
         <v>80</v>
       </c>
       <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1">
       <c r="A21" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>76</v>
@@ -1871,115 +1930,137 @@
         <v>80</v>
       </c>
       <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1">
       <c r="A23" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
+      <c r="C24" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1">
-      <c r="A25" t="s">
+      <c r="H24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" s="11" customFormat="1">
-      <c r="A26" s="11" t="s">
+      <c r="C27" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="11" customFormat="1">
-      <c r="A27" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="11" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="K29" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
@@ -1987,16 +2068,19 @@
       <c r="E30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -2005,75 +2089,87 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="11" customFormat="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="11" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="11" customFormat="1">
+        <v>326</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="11" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="11" customFormat="1">
-      <c r="A37" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="11" customFormat="1">
+        <v>327</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="11" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>58</v>
@@ -2081,52 +2177,58 @@
       <c r="E38" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="11" customFormat="1">
       <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4"/>
+      <c r="G39" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="11" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="4"/>
+      <c r="F40" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="11" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="11" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>58</v>
@@ -2134,22 +2236,19 @@
       <c r="E41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G41" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1">
+    <row r="42" spans="1:12" s="11" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>58</v>
@@ -2158,18 +2257,18 @@
         <v>60</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="11" customFormat="1">
       <c r="A43" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>58</v>
@@ -2178,110 +2277,113 @@
         <v>60</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="11" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="11" customFormat="1">
       <c r="A44" s="4" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="G44" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="11" customFormat="1">
-      <c r="A45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="G45" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="11" customFormat="1">
+      <c r="A45" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="11" customFormat="1">
-      <c r="A46" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="11" customFormat="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1">
+      <c r="A46" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="F46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="11" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="11" customFormat="1">
-      <c r="A48" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="F48" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="A49" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1">
       <c r="A50" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>275</v>
+        <v>316</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>58</v>
@@ -2293,18 +2395,18 @@
         <v>49</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>58</v>
@@ -2316,18 +2418,18 @@
         <v>49</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>58</v>
@@ -2335,49 +2437,47 @@
       <c r="E52" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G52" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1">
       <c r="A53" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>60</v>
+        <v>268</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="F53" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1">
-      <c r="A54" s="4" t="s">
-        <v>285</v>
+      <c r="A54" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="F54" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G54" s="11" t="s">
-        <v>326</v>
+        <v>155</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1">
@@ -2385,41 +2485,38 @@
         <v>43</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D55" s="4"/>
       <c r="G55" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1">
-      <c r="A56" s="11" t="s">
-        <v>43</v>
+      <c r="A56" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D56" s="4"/>
+      <c r="F56" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G56" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1">
@@ -2433,176 +2530,164 @@
         <v>292</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="F57" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G57" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>302</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D58" s="4"/>
       <c r="G58" s="11" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1">
       <c r="A59" s="4" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="11" t="s">
-        <v>306</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="G60" s="11" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1">
       <c r="A61" s="4" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="D61" s="4"/>
       <c r="G61" s="11" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D62" s="4"/>
       <c r="G62" s="11" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="11" customFormat="1">
       <c r="A63" s="4" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D63" s="4"/>
       <c r="G63" s="11" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1">
       <c r="A64" s="4" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D64" s="4"/>
       <c r="G64" s="11" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D65" s="4"/>
       <c r="G65" s="11" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D66" s="4"/>
       <c r="G66" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="11" customFormat="1">
-      <c r="A67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="G67" s="11" t="s">
-        <v>162</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="4"/>
@@ -2615,9 +2700,6 @@
     </row>
     <row r="71" spans="1:9">
       <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="C72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2627,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1785AC80-7F5A-4FB1-94A5-139ABE7C7498}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2777,10 +2859,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2788,10 +2870,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2799,10 +2881,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -2811,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2839,26 +2921,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" s="11" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2866,32 +2948,32 @@
         <v>63</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2899,10 +2981,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2910,10 +2992,10 @@
         <v>63</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2921,10 +3003,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2932,10 +3014,10 @@
         <v>63</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2943,10 +3025,10 @@
         <v>63</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2954,741 +3036,741 @@
         <v>63</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
+      <c r="A30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>158</v>
+      <c r="A34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>161</v>
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>164</v>
+      <c r="A37" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
+        <v>147</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>212</v>
+      <c r="A43" t="s">
+        <v>205</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>215</v>
+      <c r="A61" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="11" t="s">
-        <v>215</v>
+      <c r="A63" t="s">
+        <v>208</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="C68" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>276</v>
+      <c r="A72" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" t="s">
-        <v>241</v>
+        <v>208</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>246</v>
+      <c r="A74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>244</v>
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>234</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
-        <v>252</v>
+      <c r="A79" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
-        <v>252</v>
+      <c r="A80" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="C85" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>278</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="11" t="s">
-        <v>278</v>
+      <c r="A90" t="s">
+        <v>269</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>58</v>
@@ -3699,7 +3781,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>78</v>
@@ -3710,7 +3792,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>58</v>
@@ -3721,12 +3803,34 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>84</v>
       </c>
     </row>
